--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_15_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_15_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>303826.4805807266</v>
+        <v>309543.6167677925</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11084131.224384</v>
+        <v>11080496.12760381</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21902911.57654877</v>
+        <v>21901388.32567452</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3779914.767974727</v>
+        <v>3781183.218263785</v>
       </c>
     </row>
     <row r="11">
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>213.7089309661116</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L2" t="n">
-        <v>227.8503193726002</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M2" t="n">
-        <v>221.5380516068512</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N2" t="n">
-        <v>220.4623563888806</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O2" t="n">
-        <v>221.6463124176202</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P2" t="n">
-        <v>224.0194954968931</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>124.3018764260165</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
-        <v>133.5074379247318</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L3" t="n">
-        <v>132.7267805197011</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M3" t="n">
-        <v>135.3335004554958</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N3" t="n">
-        <v>124.3611887315708</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O3" t="n">
-        <v>136.210429333514</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P3" t="n">
-        <v>128.8492278044037</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.5557272449332</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,19 +8140,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>131.5393333932398</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M4" t="n">
-        <v>135.3985889238948</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N4" t="n">
-        <v>124.2422182555182</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O4" t="n">
-        <v>135.2760693786741</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>101.1996294891914</v>
+        <v>105.2660364171859</v>
       </c>
       <c r="K5" t="n">
-        <v>100.4209827753361</v>
+        <v>106.5154726531473</v>
       </c>
       <c r="L5" t="n">
-        <v>87.30660203631257</v>
+        <v>94.86735564139641</v>
       </c>
       <c r="M5" t="n">
-        <v>65.15608619503345</v>
+        <v>73.56888138194589</v>
       </c>
       <c r="N5" t="n">
-        <v>61.54996728438837</v>
+        <v>70.0988902927316</v>
       </c>
       <c r="O5" t="n">
-        <v>71.5898496110714</v>
+        <v>79.66235518893416</v>
       </c>
       <c r="P5" t="n">
-        <v>95.94977617046791</v>
+        <v>102.8394729171565</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.7136259741826</v>
+        <v>125.8875013024845</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>79.28173225607949</v>
+        <v>81.70365636471669</v>
       </c>
       <c r="K6" t="n">
-        <v>56.56084083524807</v>
+        <v>60.70029489530543</v>
       </c>
       <c r="L6" t="n">
-        <v>29.26258493301847</v>
+        <v>34.82859175712527</v>
       </c>
       <c r="M6" t="n">
-        <v>14.59566429667032</v>
+        <v>21.0909317288216</v>
       </c>
       <c r="N6" t="n">
-        <v>0.427781316265424</v>
+        <v>7.094959150074288</v>
       </c>
       <c r="O6" t="n">
-        <v>22.83557390495589</v>
+        <v>28.93473908397459</v>
       </c>
       <c r="P6" t="n">
-        <v>37.85591101917009</v>
+        <v>42.75102878723314</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.72910471478855</v>
+        <v>79.00136130722979</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>79.98512269717256</v>
+        <v>82.48202502181968</v>
       </c>
       <c r="L7" t="n">
-        <v>72.14554267158445</v>
+        <v>75.34071799375025</v>
       </c>
       <c r="M7" t="n">
-        <v>72.77616423186208</v>
+        <v>76.14502861244816</v>
       </c>
       <c r="N7" t="n">
-        <v>63.10881485466065</v>
+        <v>66.39757517005853</v>
       </c>
       <c r="O7" t="n">
-        <v>78.80947660991433</v>
+        <v>81.84717906246624</v>
       </c>
       <c r="P7" t="n">
-        <v>86.68963829503033</v>
+        <v>89.28891752250335</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K11" t="n">
         <v>56.54227989916996</v>
@@ -8696,13 +8696,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M11" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P11" t="n">
         <v>46.34579576917247</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K12" t="n">
         <v>26.75787480980772</v>
@@ -8860,10 +8860,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O13" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P13" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K14" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L14" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M14" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P14" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K15" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9085,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L16" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M16" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N16" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O16" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P16" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K17" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L17" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M17" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P17" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K18" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9322,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L19" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M19" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N19" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O19" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P19" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K20" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L20" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M20" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P20" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q20" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K21" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q21" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9559,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L22" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M22" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N22" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O22" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P22" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K23" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L23" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M23" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P23" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q23" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K24" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q24" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9796,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L25" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M25" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N25" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O25" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P25" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K26" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L26" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M26" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P26" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q26" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K27" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q27" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10033,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L28" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M28" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N28" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O28" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P28" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L29" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M29" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K30" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10270,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L31" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M31" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N31" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O31" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P31" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K32" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L32" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M32" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K33" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10507,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L34" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M34" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N34" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O34" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P34" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K35" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L35" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M35" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P35" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K36" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,10 +10680,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10744,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L37" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M37" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N37" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O37" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P37" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K38" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L38" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M38" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P38" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q38" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K39" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q39" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10981,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L40" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M40" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N40" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O40" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P40" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L41" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M41" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K42" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11218,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O43" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P43" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K44" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L44" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P44" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K45" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11455,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L46" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M46" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N46" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22559,16 +22559,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.2525745279679</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H2" t="n">
-        <v>338.9610704234411</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>208.5419810076426</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>7.691768522530872</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,19 +22589,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.573660934093467</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>146.7180671985084</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
-        <v>207.8769805161729</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>222.876261087807</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3416398688631</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22638,13 +22638,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3166775988975</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>111.9762305495779</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>88.47255136081093</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,16 +22671,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>98.49142681748486</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
-        <v>171.1846379684609</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>200.0565464158579</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9396163201648</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22717,19 +22717,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9684779693381</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
-        <v>162.0271147023483</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>154.7737967889741</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>91.76833190583969</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>19.65523952622401</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,19 +22747,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>84.27785874996061</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
-        <v>176.2816470990699</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S4" t="n">
-        <v>223.6244601920234</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>227.8494471293112</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3178020079934</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22796,13 +22796,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>414.3619722604186</v>
+        <v>414.4098835042129</v>
       </c>
       <c r="H5" t="n">
-        <v>329.8401899509017</v>
+        <v>330.3308609764111</v>
       </c>
       <c r="I5" t="n">
-        <v>174.2070370879479</v>
+        <v>176.0541353143313</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,16 +22829,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>90.7737725095641</v>
+        <v>93.78337717756372</v>
       </c>
       <c r="S5" t="n">
-        <v>187.582381344393</v>
+        <v>188.6741588123578</v>
       </c>
       <c r="T5" t="n">
-        <v>218.9776496616099</v>
+        <v>219.1873811313198</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2703916874592</v>
+        <v>251.2742245869627</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22875,13 +22875,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.8401633762177</v>
+        <v>136.8657981516121</v>
       </c>
       <c r="H6" t="n">
-        <v>107.3741063463283</v>
+        <v>107.6216843086893</v>
       </c>
       <c r="I6" t="n">
-        <v>72.06625027293174</v>
+        <v>72.94885109242954</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,16 +22908,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>68.90574551811956</v>
+        <v>70.49735025707633</v>
       </c>
       <c r="S6" t="n">
-        <v>162.3335952796497</v>
+        <v>162.8097499892768</v>
       </c>
       <c r="T6" t="n">
-        <v>198.1358597025125</v>
+        <v>198.2391858366678</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9082667002516</v>
+        <v>225.9099531986328</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22954,16 +22954,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.5689844521935</v>
+        <v>167.5904757867562</v>
       </c>
       <c r="H7" t="n">
-        <v>158.4752541590085</v>
+        <v>158.6663316608477</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7599372006633</v>
+        <v>143.406240243694</v>
       </c>
       <c r="J7" t="n">
-        <v>63.52414024371951</v>
+        <v>65.04357759730172</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,19 +22984,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>50.82572432797411</v>
+        <v>52.6253305339463</v>
       </c>
       <c r="R7" t="n">
-        <v>158.3189658645519</v>
+        <v>159.285294416798</v>
       </c>
       <c r="S7" t="n">
-        <v>216.6623777159678</v>
+        <v>217.0369130646649</v>
       </c>
       <c r="T7" t="n">
-        <v>226.14252028333</v>
+        <v>226.2343468946433</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2960114525128</v>
+        <v>286.2971837071253</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S11" t="n">
         <v>179.7218745449422</v>
@@ -23437,7 +23437,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J13" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S14" t="n">
         <v>179.7218745449422</v>
@@ -23674,7 +23674,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J16" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R16" t="n">
         <v>151.3616578248528</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S17" t="n">
         <v>179.7218745449422</v>
@@ -23911,7 +23911,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J19" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R19" t="n">
         <v>151.3616578248528</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S20" t="n">
         <v>179.7218745449422</v>
@@ -24148,7 +24148,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J22" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R22" t="n">
         <v>151.3616578248528</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S23" t="n">
         <v>179.7218745449422</v>
@@ -24385,7 +24385,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J25" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R25" t="n">
         <v>151.3616578248528</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S26" t="n">
         <v>179.7218745449422</v>
@@ -24622,7 +24622,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J28" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R28" t="n">
         <v>151.3616578248528</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S29" t="n">
         <v>179.7218745449422</v>
@@ -24859,7 +24859,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J31" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24880,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R31" t="n">
         <v>151.3616578248528</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S32" t="n">
         <v>179.7218745449422</v>
@@ -25096,7 +25096,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J34" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,7 +25117,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R34" t="n">
         <v>151.3616578248528</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S35" t="n">
         <v>179.7218745449422</v>
@@ -25333,7 +25333,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J37" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R37" t="n">
         <v>151.3616578248528</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S38" t="n">
         <v>179.7218745449422</v>
@@ -25570,7 +25570,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J40" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R40" t="n">
         <v>151.3616578248528</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S41" t="n">
         <v>179.7218745449422</v>
@@ -25807,7 +25807,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J43" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R43" t="n">
         <v>151.3616578248528</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S44" t="n">
         <v>179.7218745449422</v>
@@ -26044,7 +26044,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J46" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R46" t="n">
         <v>151.3616578248528</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>354847.5583829682</v>
+        <v>354774.204326063</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>331296.9123093484</v>
+        <v>332692.3888291502</v>
       </c>
     </row>
     <row r="4">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102976.1206420237</v>
+        <v>103649.9010013378</v>
       </c>
       <c r="C2" t="n">
-        <v>110808.7051733356</v>
+        <v>110424.3424801292</v>
       </c>
       <c r="D2" t="n">
         <v>111672.4153895514</v>
@@ -26323,7 +26323,7 @@
         <v>113576.0141278201</v>
       </c>
       <c r="F2" t="n">
-        <v>113576.0141278202</v>
+        <v>113576.0141278201</v>
       </c>
       <c r="G2" t="n">
         <v>113576.0141278201</v>
@@ -26347,10 +26347,10 @@
         <v>113576.0141278201</v>
       </c>
       <c r="N2" t="n">
-        <v>113576.0141278202</v>
+        <v>113576.0141278201</v>
       </c>
       <c r="O2" t="n">
-        <v>113576.0141278202</v>
+        <v>113576.0141278201</v>
       </c>
       <c r="P2" t="n">
         <v>113576.0141278201</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12024.00450509394</v>
+        <v>22175.99473096512</v>
       </c>
       <c r="C3" t="n">
-        <v>201732.3212511904</v>
+        <v>181286.3364020008</v>
       </c>
       <c r="D3" t="n">
-        <v>22935.65365682315</v>
+        <v>33142.32881762755</v>
       </c>
       <c r="E3" t="n">
-        <v>47420.72226727416</v>
+        <v>47420.72226727413</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80342.75945640847</v>
+        <v>76556.04900668241</v>
       </c>
       <c r="C4" t="n">
-        <v>34685.34919711658</v>
+        <v>36290.20638248718</v>
       </c>
       <c r="D4" t="n">
-        <v>29335.74353511573</v>
+        <v>28640.24372414601</v>
       </c>
       <c r="E4" t="n">
-        <v>18603.91419674846</v>
+        <v>18162.84752353982</v>
       </c>
       <c r="F4" t="n">
-        <v>18603.91419674845</v>
+        <v>18162.84752353982</v>
       </c>
       <c r="G4" t="n">
-        <v>18603.91419674845</v>
+        <v>18162.84752353982</v>
       </c>
       <c r="H4" t="n">
-        <v>18603.91419674845</v>
+        <v>18162.84752353982</v>
       </c>
       <c r="I4" t="n">
-        <v>18603.91419674845</v>
+        <v>18162.84752353982</v>
       </c>
       <c r="J4" t="n">
-        <v>18603.91419674845</v>
+        <v>18162.84752353982</v>
       </c>
       <c r="K4" t="n">
-        <v>18603.91419674845</v>
+        <v>18162.84752353982</v>
       </c>
       <c r="L4" t="n">
-        <v>18603.91419674845</v>
+        <v>18162.84752353982</v>
       </c>
       <c r="M4" t="n">
-        <v>18603.91419674845</v>
+        <v>18162.84752353982</v>
       </c>
       <c r="N4" t="n">
-        <v>18603.91419674845</v>
+        <v>18162.84752353982</v>
       </c>
       <c r="O4" t="n">
-        <v>18603.91419674845</v>
+        <v>18162.84752353982</v>
       </c>
       <c r="P4" t="n">
-        <v>18603.91419674845</v>
+        <v>18162.84752353982</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33899.6213386609</v>
+        <v>34129.29174257201</v>
       </c>
       <c r="C5" t="n">
-        <v>38729.13478501392</v>
+        <v>38469.32408772787</v>
       </c>
       <c r="D5" t="n">
         <v>39312.96135688073</v>
@@ -26479,37 +26479,37 @@
         <v>6972.102563257328</v>
       </c>
       <c r="F5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="G5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="H5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="I5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="J5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="K5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="L5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="M5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="N5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="O5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="P5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23290.26465813958</v>
+        <v>-29211.43447888171</v>
       </c>
       <c r="C6" t="n">
-        <v>-164338.1000599853</v>
+        <v>-145621.5243920866</v>
       </c>
       <c r="D6" t="n">
-        <v>20088.05684073176</v>
+        <v>10576.88149089711</v>
       </c>
       <c r="E6" t="n">
-        <v>40579.2751005402</v>
+        <v>41020.34177374886</v>
       </c>
       <c r="F6" t="n">
-        <v>87999.99736781439</v>
+        <v>88441.064041023</v>
       </c>
       <c r="G6" t="n">
-        <v>87999.99736781436</v>
+        <v>88441.064041023</v>
       </c>
       <c r="H6" t="n">
-        <v>87999.99736781436</v>
+        <v>88441.064041023</v>
       </c>
       <c r="I6" t="n">
-        <v>87999.99736781436</v>
+        <v>88441.064041023</v>
       </c>
       <c r="J6" t="n">
-        <v>87999.99736781436</v>
+        <v>88441.064041023</v>
       </c>
       <c r="K6" t="n">
-        <v>87999.99736781436</v>
+        <v>88441.064041023</v>
       </c>
       <c r="L6" t="n">
-        <v>87999.99736781436</v>
+        <v>88441.064041023</v>
       </c>
       <c r="M6" t="n">
-        <v>87999.99736781436</v>
+        <v>88441.064041023</v>
       </c>
       <c r="N6" t="n">
-        <v>87999.99736781439</v>
+        <v>88441.064041023</v>
       </c>
       <c r="O6" t="n">
-        <v>87999.99736781439</v>
+        <v>88441.064041023</v>
       </c>
       <c r="P6" t="n">
-        <v>87999.99736781437</v>
+        <v>88441.064041023</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.47804305783955</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>234.0153571107303</v>
+        <v>222.0974352168747</v>
       </c>
       <c r="D3" t="n">
         <v>260.7963925174648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.47804305783955</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>221.5373140528907</v>
+        <v>199.0840525300854</v>
       </c>
       <c r="D3" t="n">
-        <v>26.78103540673453</v>
+        <v>38.69895730059008</v>
       </c>
       <c r="E3" t="n">
-        <v>59.02482598057782</v>
+        <v>59.02482598057778</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05016298716719411</v>
+        <v>0.09251611130367558</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5137316923260268</v>
+        <v>0.9474806248887679</v>
       </c>
       <c r="I2" t="n">
-        <v>1.933908562763253</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J2" t="n">
-        <v>4.257520832081646</v>
+        <v>7.852189301760344</v>
       </c>
       <c r="K2" t="n">
-        <v>6.380920078868973</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L2" t="n">
-        <v>7.916095597386992</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M2" t="n">
-        <v>8.80818162042158</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N2" t="n">
-        <v>8.950707207710371</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O2" t="n">
-        <v>8.451899004066584</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P2" t="n">
-        <v>7.213500258376478</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.417038280451338</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>3.15105074264126</v>
+        <v>5.811515176679516</v>
       </c>
       <c r="S2" t="n">
-        <v>1.143089070072437</v>
+        <v>2.108210886332509</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2195884763243924</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U2" t="n">
-        <v>0.004013038973375529</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02683956431308883</v>
+        <v>0.0495004835149808</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2592136869185159</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9240814906041552</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J3" t="n">
-        <v>2.535750240650205</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K3" t="n">
-        <v>4.334001049627156</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L3" t="n">
-        <v>5.827599260173082</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M3" t="n">
-        <v>6.800533466522552</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N3" t="n">
-        <v>6.980523351762521</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O3" t="n">
-        <v>6.385815110930395</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P3" t="n">
-        <v>5.125179609926587</v>
+        <v>9.452421277522957</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.426046841088322</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R3" t="n">
-        <v>1.666407335158271</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S3" t="n">
-        <v>0.498533135376891</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1081822789637221</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001765760810071635</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02250138912069426</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2000578050912637</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6766781382841512</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J4" t="n">
-        <v>1.590848210833084</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K4" t="n">
-        <v>2.614252299658842</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L4" t="n">
-        <v>3.345342887998491</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M4" t="n">
-        <v>3.527195023710282</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N4" t="n">
-        <v>3.44332620971497</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O4" t="n">
-        <v>3.180469073168677</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.884184501733771</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R4" t="n">
-        <v>1.01174427809958</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3921378449488262</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T4" t="n">
-        <v>0.09614229897023908</v>
+        <v>0.1773162272588684</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001227348497492416</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.940765254716503</v>
+        <v>0.8928540109221088</v>
       </c>
       <c r="H5" t="n">
-        <v>9.634612164865388</v>
+        <v>9.14394113935605</v>
       </c>
       <c r="I5" t="n">
-        <v>36.26885248245802</v>
+        <v>34.42175425607464</v>
       </c>
       <c r="J5" t="n">
-        <v>79.84627503749486</v>
+        <v>75.7798681095004</v>
       </c>
       <c r="K5" t="n">
-        <v>119.6688682696445</v>
+        <v>113.5743783918333</v>
       </c>
       <c r="L5" t="n">
-        <v>148.4598129336747</v>
+        <v>140.8990593285908</v>
       </c>
       <c r="M5" t="n">
-        <v>165.1901470322393</v>
+        <v>156.7773518453268</v>
       </c>
       <c r="N5" t="n">
-        <v>167.8630963122025</v>
+        <v>159.3141733038593</v>
       </c>
       <c r="O5" t="n">
-        <v>158.5083618106153</v>
+        <v>150.4358562327526</v>
       </c>
       <c r="P5" t="n">
-        <v>135.2832195848016</v>
+        <v>128.393522838113</v>
       </c>
       <c r="Q5" t="n">
-        <v>101.5920639002668</v>
+        <v>96.41818857196495</v>
       </c>
       <c r="R5" t="n">
-        <v>59.09534543158559</v>
+        <v>56.08574076358597</v>
       </c>
       <c r="S5" t="n">
-        <v>21.43768824185233</v>
+        <v>20.34591077388757</v>
       </c>
       <c r="T5" t="n">
-        <v>4.118199902521494</v>
+        <v>3.908468432811533</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07526122037732022</v>
+        <v>0.0714283208737687</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5033537869928916</v>
+        <v>0.4777190115985608</v>
       </c>
       <c r="H6" t="n">
-        <v>4.861337890168191</v>
+        <v>4.613759927807154</v>
       </c>
       <c r="I6" t="n">
-        <v>17.33038257848333</v>
+        <v>16.44778175898554</v>
       </c>
       <c r="J6" t="n">
-        <v>47.55589441058719</v>
+        <v>45.13397030194999</v>
       </c>
       <c r="K6" t="n">
-        <v>81.28059813911092</v>
+        <v>77.14114407905356</v>
       </c>
       <c r="L6" t="n">
-        <v>109.2917948468557</v>
+        <v>103.7257880227489</v>
       </c>
       <c r="M6" t="n">
-        <v>127.538369625348</v>
+        <v>121.0431021931967</v>
       </c>
       <c r="N6" t="n">
-        <v>130.9139307670679</v>
+        <v>124.246752933259</v>
       </c>
       <c r="O6" t="n">
-        <v>119.7606705394885</v>
+        <v>113.6615053604698</v>
       </c>
       <c r="P6" t="n">
-        <v>96.11849639516015</v>
+        <v>91.22337862709711</v>
       </c>
       <c r="Q6" t="n">
-        <v>64.25266937123297</v>
+        <v>60.98041277879173</v>
       </c>
       <c r="R6" t="n">
-        <v>31.25208863452358</v>
+        <v>29.6604838955668</v>
       </c>
       <c r="S6" t="n">
-        <v>9.349575824188134</v>
+        <v>8.87342111456098</v>
       </c>
       <c r="T6" t="n">
-        <v>2.028868992309067</v>
+        <v>1.925542858153847</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03311538072321656</v>
+        <v>0.03142888234201059</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4219949062652513</v>
+        <v>0.400503571702561</v>
       </c>
       <c r="H7" t="n">
-        <v>3.751918348431055</v>
+        <v>3.560840846591863</v>
       </c>
       <c r="I7" t="n">
-        <v>12.69053772659502</v>
+        <v>12.04423468356429</v>
       </c>
       <c r="J7" t="n">
-        <v>29.83503987295326</v>
+        <v>28.31560251937106</v>
       </c>
       <c r="K7" t="n">
-        <v>49.02813547336282</v>
+        <v>46.53123314871571</v>
       </c>
       <c r="L7" t="n">
-        <v>62.73913360965383</v>
+        <v>59.54395828748803</v>
       </c>
       <c r="M7" t="n">
-        <v>66.14961971574297</v>
+        <v>62.78075533515689</v>
       </c>
       <c r="N7" t="n">
-        <v>64.57672961057254</v>
+        <v>61.28796929517467</v>
       </c>
       <c r="O7" t="n">
-        <v>59.64706184192845</v>
+        <v>56.60935938937655</v>
       </c>
       <c r="P7" t="n">
-        <v>51.03836575411728</v>
+        <v>48.43908652664426</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.33631892372027</v>
+        <v>33.53671271774809</v>
       </c>
       <c r="R7" t="n">
-        <v>18.97442551261757</v>
+        <v>18.00809696037151</v>
       </c>
       <c r="S7" t="n">
-        <v>7.354220321004423</v>
+        <v>6.979684972307355</v>
       </c>
       <c r="T7" t="n">
-        <v>1.803069144951528</v>
+        <v>1.711242533638215</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02301790397810464</v>
+        <v>0.02184564936559426</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31759,7 +31759,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J11" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K11" t="n">
         <v>163.5475711458106</v>
@@ -31783,13 +31783,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R11" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S11" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T11" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U11" t="n">
         <v>0.1028570752958528</v>
@@ -31838,7 +31838,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J12" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K12" t="n">
         <v>111.0835641645513</v>
@@ -31868,7 +31868,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T12" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U12" t="n">
         <v>0.04525771959877963</v>
@@ -31911,13 +31911,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H13" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I13" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J13" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K13" t="n">
         <v>67.00516676073742</v>
@@ -31932,10 +31932,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O13" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P13" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q13" t="n">
         <v>48.29300399320443</v>
@@ -31993,16 +31993,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I14" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J14" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K14" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L14" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M14" t="n">
         <v>225.7600302817866</v>
@@ -32020,13 +32020,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R14" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S14" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T14" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U14" t="n">
         <v>0.1028570752958528</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H15" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I15" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J15" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K15" t="n">
         <v>111.0835641645513</v>
@@ -32093,22 +32093,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R15" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S15" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T15" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,37 +32145,37 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H16" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I16" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J16" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K16" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L16" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M16" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N16" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O16" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P16" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R16" t="n">
         <v>25.93173355231669</v>
@@ -32230,16 +32230,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J17" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K17" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L17" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M17" t="n">
         <v>225.7600302817866</v>
@@ -32257,13 +32257,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R17" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S17" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T17" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U17" t="n">
         <v>0.1028570752958528</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H18" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I18" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J18" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K18" t="n">
         <v>111.0835641645513</v>
@@ -32330,22 +32330,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R18" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S18" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T18" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,37 +32382,37 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H19" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I19" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J19" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K19" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L19" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M19" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N19" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O19" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P19" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R19" t="n">
         <v>25.93173355231669</v>
@@ -32467,16 +32467,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J20" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K20" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L20" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M20" t="n">
         <v>225.7600302817866</v>
@@ -32494,13 +32494,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R20" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S20" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T20" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U20" t="n">
         <v>0.1028570752958528</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H21" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I21" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J21" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K21" t="n">
         <v>111.0835641645513</v>
@@ -32567,22 +32567,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R21" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S21" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T21" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,37 +32619,37 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H22" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I22" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J22" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K22" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L22" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M22" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N22" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O22" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P22" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R22" t="n">
         <v>25.93173355231669</v>
@@ -32704,16 +32704,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J23" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K23" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L23" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M23" t="n">
         <v>225.7600302817866</v>
@@ -32731,13 +32731,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R23" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S23" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T23" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U23" t="n">
         <v>0.1028570752958528</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H24" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I24" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J24" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K24" t="n">
         <v>111.0835641645513</v>
@@ -32804,22 +32804,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R24" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S24" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T24" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,37 +32856,37 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H25" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I25" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J25" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K25" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L25" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M25" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N25" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O25" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P25" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R25" t="n">
         <v>25.93173355231669</v>
@@ -32941,16 +32941,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I26" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J26" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K26" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L26" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M26" t="n">
         <v>225.7600302817866</v>
@@ -32968,13 +32968,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R26" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S26" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T26" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U26" t="n">
         <v>0.1028570752958528</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H27" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I27" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J27" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K27" t="n">
         <v>111.0835641645513</v>
@@ -33041,22 +33041,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R27" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S27" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T27" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,37 +33093,37 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H28" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I28" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J28" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K28" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L28" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M28" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N28" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O28" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P28" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R28" t="n">
         <v>25.93173355231669</v>
@@ -33178,16 +33178,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J29" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K29" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L29" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M29" t="n">
         <v>225.7600302817866</v>
@@ -33205,13 +33205,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R29" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S29" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T29" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U29" t="n">
         <v>0.1028570752958528</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I30" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J30" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K30" t="n">
         <v>111.0835641645513</v>
@@ -33278,22 +33278,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S30" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T30" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,37 +33330,37 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H31" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I31" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J31" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O31" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P31" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R31" t="n">
         <v>25.93173355231669</v>
@@ -33415,16 +33415,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I32" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J32" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K32" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L32" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M32" t="n">
         <v>225.7600302817866</v>
@@ -33442,13 +33442,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R32" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S32" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T32" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U32" t="n">
         <v>0.1028570752958528</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H33" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I33" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J33" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K33" t="n">
         <v>111.0835641645513</v>
@@ -33515,22 +33515,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R33" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S33" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T33" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,37 +33567,37 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H34" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I34" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J34" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K34" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L34" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M34" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O34" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P34" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R34" t="n">
         <v>25.93173355231669</v>
@@ -33652,16 +33652,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I35" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J35" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K35" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L35" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M35" t="n">
         <v>225.7600302817866</v>
@@ -33679,13 +33679,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R35" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S35" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T35" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U35" t="n">
         <v>0.1028570752958528</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H36" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I36" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J36" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K36" t="n">
         <v>111.0835641645513</v>
@@ -33752,22 +33752,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R36" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S36" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T36" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,37 +33804,37 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H37" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I37" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J37" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K37" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L37" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M37" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N37" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O37" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P37" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R37" t="n">
         <v>25.93173355231669</v>
@@ -33889,16 +33889,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I38" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J38" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K38" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L38" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M38" t="n">
         <v>225.7600302817866</v>
@@ -33916,13 +33916,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R38" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S38" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T38" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U38" t="n">
         <v>0.1028570752958528</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H39" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I39" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J39" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K39" t="n">
         <v>111.0835641645513</v>
@@ -33989,22 +33989,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R39" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S39" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T39" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,37 +34041,37 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H40" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I40" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J40" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K40" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L40" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M40" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N40" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O40" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P40" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R40" t="n">
         <v>25.93173355231669</v>
@@ -34126,16 +34126,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J41" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K41" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M41" t="n">
         <v>225.7600302817866</v>
@@ -34153,13 +34153,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R41" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S41" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T41" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U41" t="n">
         <v>0.1028570752958528</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I42" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J42" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K42" t="n">
         <v>111.0835641645513</v>
@@ -34226,22 +34226,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S42" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T42" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,37 +34278,37 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H43" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I43" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J43" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O43" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P43" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R43" t="n">
         <v>25.93173355231669</v>
@@ -34363,16 +34363,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I44" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J44" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K44" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L44" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M44" t="n">
         <v>225.7600302817866</v>
@@ -34390,13 +34390,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R44" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S44" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T44" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U44" t="n">
         <v>0.1028570752958528</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H45" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I45" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J45" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K45" t="n">
         <v>111.0835641645513</v>
@@ -34463,22 +34463,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R45" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S45" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T45" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,37 +34515,37 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H46" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I46" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J46" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K46" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L46" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M46" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N46" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O46" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P46" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R46" t="n">
         <v>25.93173355231669</v>
